--- a/biology/Origine et évolution du vivant/Chordata_(classification_phylogénétique)/Chordata_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Chordata_(classification_phylogénétique)/Chordata_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chordata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chordata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Chordata (Chordés ou Cordés), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chordata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chordata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -732,7 +746,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chordata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chordata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -750,7 +764,9 @@
           <t>Débat scientifique relatif à la phylogénie des Chordata</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La place respective des Tuniciers (anciennement Urocordés) et des Céphalocordés n'est pas l'objet d'un consensus, non plus que l'exclusion des Myxines du sein des Vertébrés, voire le caractère largement polyphylétique des Agnathes. La relation basée sur des caractères morphologiques entre Anaspidés et Lamproies semble devoir être remise en cause. La monophylie des Thélodontes est aussi discutée (les Furcacaudiformes pourraient être plus proches parents des Gnathostomes).
 </t>
@@ -763,7 +779,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chordata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chordata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -781,7 +797,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Thomas J. Near : « Conflict and resolution between phylogenies inferred from molecular and phenotypic data sets for hagfish, lampreys, and gnathostomes », J. Exp. Zool. (Mol. Dev. Evol.), vol. 312 B, 2009, pp. 749-761
 (en) Mark V. H. Wilson et Tiiu Märss : « Thelodont  phylogeny  revisited,  with  inclusion  of  key  scale-based  taxa », Estonian Journal of Earth Sciences, vol. 58, n°4, 2009, pp. 297-310
